--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed2/result_data_RandomForest.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.41839999999999</v>
+        <v>-12.37039999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.1486</v>
+        <v>-13.2884</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.3219</v>
+        <v>-12.3529</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.7957</v>
+        <v>-11.7357</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -1177,7 +1177,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.2075</v>
+        <v>-11.16090000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.84109999999999</v>
+        <v>-14.21479999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.8376</v>
+        <v>-12.638</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.19679999999999</v>
+        <v>-11.10509999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.62700000000001</v>
+        <v>-11.55</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.3247</v>
+        <v>-13.53669999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.30729999999999</v>
+        <v>-10.0772</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
